--- a/biology/Zoologie/Cacops_aspidephorus/Cacops_aspidephorus.xlsx
+++ b/biology/Zoologie/Cacops_aspidephorus/Cacops_aspidephorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacops est un genre fossile d'amphibiens du Permien. La seule espèce connue de ce genre est Cacops aspidephorus.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été découvert au Texas par Samuel Wendell Williston en 1910. Il fait partie du groupe des temnospondyles. Il mesurait 40 cm de long et était protégé par une double rangée de plaques de blindage. Le corps était court et il semblerait que c'était un animal nocturne.
 </t>
@@ -542,9 +556,11 @@
           <t>Cladogramme dans Dissorophoidea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al.[1], et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al., et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Williston, 1910, « Cacops, Desmospondylus; new genera of Permian vertebrates », Bulletin of the Geological Society of America, vol. 21, p. 249–284 (lire en ligne).</t>
         </is>
